--- a/for_excel_files/Список прицепов.xlsx
+++ b/for_excel_files/Список прицепов.xlsx
@@ -1121,13 +1121,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A261"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A242" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="A262" sqref="A262"/>
+    <sheetView tabSelected="1" topLeftCell="A29" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="B38" sqref="B38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="42" customWidth="1"/>
+    <col min="2" max="2" width="80.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
